--- a/报价单/Copy of 整理产品.xlsx
+++ b/报价单/Copy of 整理产品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\agent-jk\Agent Team version3\报价单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89F08CF-E65F-47A1-86B9-C9D4E2AF232D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C44BB30-A05D-4F99-AD6B-5C73872BDE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="1514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="1516">
   <si>
     <t>水管</t>
   </si>
@@ -4600,9 +4600,6 @@
     <t>完成</t>
   </si>
   <si>
-    <t>不在万鼎 list</t>
-  </si>
-  <si>
     <t>原因</t>
   </si>
   <si>
@@ -4610,6 +4607,15 @@
   </si>
   <si>
     <t>无规格为什么锁定？</t>
+  </si>
+  <si>
+    <t>有问题</t>
+  </si>
+  <si>
+    <t>160为什么选150</t>
+  </si>
+  <si>
+    <t>未完成</t>
   </si>
 </sst>
 </file>
@@ -4678,17 +4684,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4973,7 +4979,7 @@
   <dimension ref="A1:G1170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4999,7 +5005,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5013,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5027,7 +5033,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5041,7 +5047,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5055,7 +5061,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5177,8 +5183,8 @@
       <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>1510</v>
+      <c r="E14" s="4" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5206,10 +5212,10 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -5220,10 +5226,10 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -5234,10 +5240,10 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -5248,10 +5254,10 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -5261,11 +5267,11 @@
       <c r="D20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="4" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -5275,11 +5281,11 @@
       <c r="D21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="4" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -5292,8 +5298,11 @@
       <c r="D22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -5306,8 +5315,11 @@
       <c r="D23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -5320,8 +5332,11 @@
       <c r="D24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -5331,8 +5346,11 @@
       <c r="D25" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -5342,8 +5360,11 @@
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -5356,8 +5377,11 @@
       <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -5370,8 +5394,11 @@
       <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -5381,8 +5408,11 @@
       <c r="D29" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -5393,7 +5423,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -5404,7 +5434,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -5417,8 +5447,11 @@
       <c r="E32" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="1" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -5431,8 +5464,11 @@
       <c r="E33" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="1" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -5445,8 +5481,11 @@
       <c r="E34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="1" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -5459,8 +5498,11 @@
       <c r="E35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="1" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -5473,8 +5515,11 @@
       <c r="D36" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="1" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
@@ -5485,7 +5530,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -5496,7 +5541,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -5507,7 +5552,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -5518,7 +5563,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
@@ -5529,7 +5574,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
@@ -5540,7 +5585,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -5551,7 +5596,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -5565,7 +5610,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
@@ -5576,7 +5621,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
@@ -5587,7 +5632,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
@@ -5601,7 +5646,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
@@ -7377,7 +7422,7 @@
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="5" t="s">
         <v>327</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -7388,7 +7433,7 @@
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="4"/>
+      <c r="A203" s="5"/>
       <c r="D203" s="1" t="s">
         <v>358</v>
       </c>
@@ -8924,10 +8969,10 @@
       </c>
     </row>
     <row r="318" spans="1:4">
-      <c r="A318" s="5" t="s">
+      <c r="A318" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="B318" s="5" t="s">
+      <c r="B318" s="7" t="s">
         <v>500</v>
       </c>
       <c r="C318" s="1">
@@ -8938,8 +8983,8 @@
       </c>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="5"/>
-      <c r="B319" s="5"/>
+      <c r="A319" s="7"/>
+      <c r="B319" s="7"/>
       <c r="C319" s="1">
         <v>8010071454</v>
       </c>
@@ -8990,10 +9035,10 @@
       </c>
     </row>
     <row r="323" spans="1:4">
-      <c r="A323" s="4" t="s">
+      <c r="A323" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B323" s="4">
+      <c r="B323" s="5">
         <v>90</v>
       </c>
       <c r="C323" s="1">
@@ -9004,8 +9049,8 @@
       </c>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="4"/>
-      <c r="B324" s="4"/>
+      <c r="A324" s="5"/>
+      <c r="B324" s="5"/>
       <c r="C324" s="1" t="s">
         <v>482</v>
       </c>
@@ -9014,8 +9059,8 @@
       </c>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="4"/>
-      <c r="B325" s="4"/>
+      <c r="A325" s="5"/>
+      <c r="B325" s="5"/>
       <c r="C325" s="1">
         <v>8010070753</v>
       </c>
@@ -9024,8 +9069,8 @@
       </c>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="4"/>
-      <c r="B326" s="4"/>
+      <c r="A326" s="5"/>
+      <c r="B326" s="5"/>
       <c r="D326" s="1" t="s">
         <v>514</v>
       </c>
@@ -9078,10 +9123,10 @@
       </c>
     </row>
     <row r="331" spans="1:4">
-      <c r="A331" s="5" t="s">
+      <c r="A331" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B331" s="5">
+      <c r="B331" s="7">
         <v>110</v>
       </c>
       <c r="C331" s="1">
@@ -9092,8 +9137,8 @@
       </c>
     </row>
     <row r="332" spans="1:4">
-      <c r="A332" s="5"/>
-      <c r="B332" s="5"/>
+      <c r="A332" s="7"/>
+      <c r="B332" s="7"/>
       <c r="C332" s="1" t="s">
         <v>479</v>
       </c>
@@ -9102,8 +9147,8 @@
       </c>
     </row>
     <row r="333" spans="1:4">
-      <c r="A333" s="5"/>
-      <c r="B333" s="5"/>
+      <c r="A333" s="7"/>
+      <c r="B333" s="7"/>
       <c r="C333" s="1">
         <v>8010070747</v>
       </c>
@@ -9112,8 +9157,8 @@
       </c>
     </row>
     <row r="334" spans="1:4">
-      <c r="A334" s="5"/>
-      <c r="B334" s="5"/>
+      <c r="A334" s="7"/>
+      <c r="B334" s="7"/>
       <c r="C334" s="1" t="s">
         <v>524</v>
       </c>
@@ -16095,10 +16140,10 @@
       </c>
     </row>
     <row r="923" spans="1:4">
-      <c r="A923" s="4" t="s">
+      <c r="A923" s="5" t="s">
         <v>1265</v>
       </c>
-      <c r="B923" s="5"/>
+      <c r="B923" s="7"/>
       <c r="C923" s="1">
         <v>8010071336</v>
       </c>
@@ -16107,8 +16152,8 @@
       </c>
     </row>
     <row r="924" spans="1:4">
-      <c r="A924" s="4"/>
-      <c r="B924" s="5"/>
+      <c r="A924" s="5"/>
+      <c r="B924" s="7"/>
       <c r="C924" s="1" t="s">
         <v>1266</v>
       </c>
@@ -16117,8 +16162,8 @@
       </c>
     </row>
     <row r="925" spans="1:4">
-      <c r="A925" s="4"/>
-      <c r="B925" s="5"/>
+      <c r="A925" s="5"/>
+      <c r="B925" s="7"/>
       <c r="C925" s="1">
         <v>8010070748</v>
       </c>
@@ -16215,10 +16260,10 @@
       </c>
     </row>
     <row r="934" spans="1:4">
-      <c r="A934" s="4" t="s">
+      <c r="A934" s="5" t="s">
         <v>1278</v>
       </c>
-      <c r="B934" s="5"/>
+      <c r="B934" s="7"/>
       <c r="C934" s="1">
         <v>8010071334</v>
       </c>
@@ -16227,8 +16272,8 @@
       </c>
     </row>
     <row r="935" spans="1:4">
-      <c r="A935" s="4"/>
-      <c r="B935" s="5"/>
+      <c r="A935" s="5"/>
+      <c r="B935" s="7"/>
       <c r="C935" s="1" t="s">
         <v>482</v>
       </c>
@@ -16237,8 +16282,8 @@
       </c>
     </row>
     <row r="936" spans="1:4">
-      <c r="A936" s="4"/>
-      <c r="B936" s="5"/>
+      <c r="A936" s="5"/>
+      <c r="B936" s="7"/>
       <c r="C936" s="1">
         <v>8010070753</v>
       </c>
@@ -16247,8 +16292,8 @@
       </c>
     </row>
     <row r="937" spans="1:4">
-      <c r="A937" s="4"/>
-      <c r="B937" s="5"/>
+      <c r="A937" s="5"/>
+      <c r="B937" s="7"/>
       <c r="C937" s="1" t="s">
         <v>524</v>
       </c>
@@ -16811,10 +16856,10 @@
       </c>
     </row>
     <row r="990" spans="1:4">
-      <c r="A990" s="4" t="s">
+      <c r="A990" s="5" t="s">
         <v>1351</v>
       </c>
-      <c r="B990" s="4"/>
+      <c r="B990" s="5"/>
       <c r="C990" s="1">
         <v>8010071335</v>
       </c>
@@ -16823,8 +16868,8 @@
       </c>
     </row>
     <row r="991" spans="1:4">
-      <c r="A991" s="4"/>
-      <c r="B991" s="4"/>
+      <c r="A991" s="5"/>
+      <c r="B991" s="5"/>
       <c r="C991" s="1" t="s">
         <v>479</v>
       </c>
@@ -16833,8 +16878,8 @@
       </c>
     </row>
     <row r="992" spans="1:4">
-      <c r="A992" s="4"/>
-      <c r="B992" s="4"/>
+      <c r="A992" s="5"/>
+      <c r="B992" s="5"/>
       <c r="C992" s="1">
         <v>8010070747</v>
       </c>
@@ -16843,10 +16888,10 @@
       </c>
     </row>
     <row r="993" spans="1:4">
-      <c r="A993" s="4" t="s">
+      <c r="A993" s="5" t="s">
         <v>1352</v>
       </c>
-      <c r="B993" s="4"/>
+      <c r="B993" s="5"/>
       <c r="C993" s="1">
         <v>8010071334</v>
       </c>
@@ -16855,8 +16900,8 @@
       </c>
     </row>
     <row r="994" spans="1:4">
-      <c r="A994" s="4"/>
-      <c r="B994" s="4"/>
+      <c r="A994" s="5"/>
+      <c r="B994" s="5"/>
       <c r="C994" s="1" t="s">
         <v>482</v>
       </c>
@@ -16865,8 +16910,8 @@
       </c>
     </row>
     <row r="995" spans="1:4">
-      <c r="A995" s="4"/>
-      <c r="B995" s="4"/>
+      <c r="A995" s="5"/>
+      <c r="B995" s="5"/>
       <c r="C995" s="1">
         <v>8010070753</v>
       </c>
@@ -18311,7 +18356,7 @@
       </c>
     </row>
     <row r="1130" spans="1:4">
-      <c r="A1130" s="4" t="s">
+      <c r="A1130" s="5" t="s">
         <v>1479</v>
       </c>
       <c r="C1130" s="1">
@@ -18322,7 +18367,7 @@
       </c>
     </row>
     <row r="1131" spans="1:4">
-      <c r="A1131" s="4"/>
+      <c r="A1131" s="5"/>
       <c r="C1131" s="1" t="s">
         <v>1491</v>
       </c>
@@ -18331,7 +18376,7 @@
       </c>
     </row>
     <row r="1132" spans="1:4">
-      <c r="A1132" s="4"/>
+      <c r="A1132" s="5"/>
       <c r="C1132" s="1">
         <v>8010070750</v>
       </c>
@@ -18340,7 +18385,7 @@
       </c>
     </row>
     <row r="1133" spans="1:4">
-      <c r="A1133" s="4" t="s">
+      <c r="A1133" s="5" t="s">
         <v>1330</v>
       </c>
       <c r="C1133" s="1">
@@ -18351,7 +18396,7 @@
       </c>
     </row>
     <row r="1134" spans="1:4">
-      <c r="A1134" s="4"/>
+      <c r="A1134" s="5"/>
       <c r="C1134" s="1" t="s">
         <v>1487</v>
       </c>
@@ -18360,7 +18405,7 @@
       </c>
     </row>
     <row r="1135" spans="1:4">
-      <c r="A1135" s="4"/>
+      <c r="A1135" s="5"/>
       <c r="C1135" s="1">
         <v>8010070751</v>
       </c>
@@ -18369,7 +18414,7 @@
       </c>
     </row>
     <row r="1136" spans="1:4">
-      <c r="A1136" s="4" t="s">
+      <c r="A1136" s="5" t="s">
         <v>1480</v>
       </c>
       <c r="C1136" s="1">
@@ -18380,7 +18425,7 @@
       </c>
     </row>
     <row r="1137" spans="1:4">
-      <c r="A1137" s="4"/>
+      <c r="A1137" s="5"/>
       <c r="C1137" s="1" t="s">
         <v>484</v>
       </c>
@@ -18389,7 +18434,7 @@
       </c>
     </row>
     <row r="1138" spans="1:4">
-      <c r="A1138" s="4"/>
+      <c r="A1138" s="5"/>
       <c r="C1138" s="1">
         <v>8010070752</v>
       </c>
@@ -18398,7 +18443,7 @@
       </c>
     </row>
     <row r="1139" spans="1:4">
-      <c r="A1139" s="4" t="s">
+      <c r="A1139" s="5" t="s">
         <v>1416</v>
       </c>
       <c r="C1139" s="1">
@@ -18409,7 +18454,7 @@
       </c>
     </row>
     <row r="1140" spans="1:4">
-      <c r="A1140" s="4"/>
+      <c r="A1140" s="5"/>
       <c r="C1140" s="1" t="s">
         <v>479</v>
       </c>
@@ -18418,7 +18463,7 @@
       </c>
     </row>
     <row r="1141" spans="1:4">
-      <c r="A1141" s="4"/>
+      <c r="A1141" s="5"/>
       <c r="C1141" s="1">
         <v>8010070747</v>
       </c>
@@ -18427,7 +18472,7 @@
       </c>
     </row>
     <row r="1142" spans="1:4">
-      <c r="A1142" s="4" t="s">
+      <c r="A1142" s="5" t="s">
         <v>1481</v>
       </c>
       <c r="C1142" s="1">
@@ -18438,7 +18483,7 @@
       </c>
     </row>
     <row r="1143" spans="1:4">
-      <c r="A1143" s="4"/>
+      <c r="A1143" s="5"/>
       <c r="C1143" s="1" t="s">
         <v>1266</v>
       </c>
@@ -18447,7 +18492,7 @@
       </c>
     </row>
     <row r="1144" spans="1:4">
-      <c r="A1144" s="4"/>
+      <c r="A1144" s="5"/>
       <c r="C1144" s="1">
         <v>8010070748</v>
       </c>
@@ -18456,7 +18501,7 @@
       </c>
     </row>
     <row r="1145" spans="1:4">
-      <c r="A1145" s="4" t="s">
+      <c r="A1145" s="5" t="s">
         <v>1350</v>
       </c>
       <c r="D1145" s="1" t="s">
@@ -18464,13 +18509,13 @@
       </c>
     </row>
     <row r="1146" spans="1:4">
-      <c r="A1146" s="4"/>
+      <c r="A1146" s="5"/>
       <c r="D1146" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="1147" spans="1:4">
-      <c r="A1147" s="4" t="s">
+      <c r="A1147" s="5" t="s">
         <v>1482</v>
       </c>
       <c r="C1147" s="1">
@@ -18481,7 +18526,7 @@
       </c>
     </row>
     <row r="1148" spans="1:4">
-      <c r="A1148" s="4"/>
+      <c r="A1148" s="5"/>
       <c r="C1148" s="1" t="s">
         <v>482</v>
       </c>
@@ -18490,7 +18535,7 @@
       </c>
     </row>
     <row r="1149" spans="1:4">
-      <c r="A1149" s="4"/>
+      <c r="A1149" s="5"/>
       <c r="C1149" s="1">
         <v>8010070753</v>
       </c>
@@ -18732,34 +18777,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A323:A326"/>
+    <mergeCell ref="B323:B326"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="B318:B319"/>
+    <mergeCell ref="A331:A334"/>
+    <mergeCell ref="B331:B334"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="A471:A472"/>
+    <mergeCell ref="B471:B472"/>
+    <mergeCell ref="A473:A474"/>
+    <mergeCell ref="B473:B474"/>
+    <mergeCell ref="A923:A925"/>
+    <mergeCell ref="B923:B925"/>
+    <mergeCell ref="A934:A937"/>
+    <mergeCell ref="B934:B937"/>
+    <mergeCell ref="A990:A992"/>
+    <mergeCell ref="A993:A995"/>
+    <mergeCell ref="B990:B992"/>
+    <mergeCell ref="B993:B995"/>
+    <mergeCell ref="A1130:A1132"/>
     <mergeCell ref="A1147:A1149"/>
     <mergeCell ref="A1133:A1135"/>
     <mergeCell ref="A1136:A1138"/>
     <mergeCell ref="A1139:A1141"/>
     <mergeCell ref="A1142:A1144"/>
     <mergeCell ref="A1145:A1146"/>
-    <mergeCell ref="A990:A992"/>
-    <mergeCell ref="A993:A995"/>
-    <mergeCell ref="B990:B992"/>
-    <mergeCell ref="B993:B995"/>
-    <mergeCell ref="A1130:A1132"/>
-    <mergeCell ref="A473:A474"/>
-    <mergeCell ref="B473:B474"/>
-    <mergeCell ref="A923:A925"/>
-    <mergeCell ref="B923:B925"/>
-    <mergeCell ref="A934:A937"/>
-    <mergeCell ref="B934:B937"/>
-    <mergeCell ref="A331:A334"/>
-    <mergeCell ref="B331:B334"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="A471:A472"/>
-    <mergeCell ref="B471:B472"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="A323:A326"/>
-    <mergeCell ref="B323:B326"/>
-    <mergeCell ref="A318:A319"/>
-    <mergeCell ref="B318:B319"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
